--- a/input.xlsx
+++ b/input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yifanzhu/Downloads/工作/Matlab/raffle/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yifanzhu/Downloads/工作/raffle_machine/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD40A0C6-C899-FB47-85FF-0D6EA96CF85B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E341FAE5-BC8E-694B-9D0B-99E3F4AB0518}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="500" windowWidth="24660" windowHeight="14900" activeTab="1" xr2:uid="{45B58A9B-8090-504E-A69A-D14510A04820}"/>
+    <workbookView xWindow="860" yWindow="500" windowWidth="24660" windowHeight="14900" xr2:uid="{45B58A9B-8090-504E-A69A-D14510A04820}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,6 +37,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
+    <t>12e</t>
+  </si>
+  <si>
     <t>Monday</t>
   </si>
   <si>
@@ -56,9 +59,6 @@
   </si>
   <si>
     <t>Sunday</t>
-  </si>
-  <si>
-    <t>12e</t>
   </si>
 </sst>
 </file>
@@ -418,45 +418,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E172D3-5D75-1949-912C-2424E52A6567}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -469,7 +469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57DBD576-3C3B-DE4B-8C13-CA5DB06EAB2A}">
   <dimension ref="D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -477,7 +477,7 @@
   <sheetData>
     <row r="27" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
